--- a/data/example_facility.xlsx
+++ b/data/example_facility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelfulcher/Dropbox/01_Research/COVID19_response/CIHR/course/CIHR_training_course/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4FB0173-97C0-044D-B2E1-D619BB6CC645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D236D023-ADAE-694C-8F5C-3473D6CF8A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="3">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>count</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -875,9 +872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1353,14 +1352,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
